--- a/biology/Zoologie/Aphrophora/Aphrophora.xlsx
+++ b/biology/Zoologie/Aphrophora/Aphrophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphrophora est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Aphrophoridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aphrophora est décrit en 1821 par l'entomologiste allemand Ernst Friedrich Germar (1786-1853)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aphrophora est décrit en 1821 par l'entomologiste allemand Ernst Friedrich Germar (1786-1853),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aphrophora alni (Fallén, 1805)
 Aphrophora corticea (Germar, 1821)
@@ -578,7 +594,9 @@
           <t>Espèce rencontrée en Amérique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aphrophora cribrata (Cercope du pin ; en anglais "spittlebug")</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces fossiles est de quatorze[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, le nombre d'espèces fossiles est de quatorze :
 †Aphrophora angusta Handlirsch 1910
 †Aphrophora brevistylata Théobald 1937
 †Aphrophora coquandi Théobald 1937
@@ -624,7 +644,7 @@
 †Aphrophora spumarioides Heer 1853
 †Aphrophora stavropolitana Becker-Migdisova 1964
 †Aphrophora ungeri Heer 1853
-†Aphrophora vetusta Germar and Berendt 1856[2]
+†Aphrophora vetusta Germar and Berendt 1856
 </t>
         </is>
       </c>
